--- a/doc/table/国家表.xlsx
+++ b/doc/table/国家表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,15 +38,22 @@
     <t>中国</t>
   </si>
   <si>
-    <t>类型</t>
+    <t>国家类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国家</t>
+  </si>
+  <si>
+    <t>中立区</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,6 +102,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -141,7 +156,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -173,9 +188,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -207,6 +223,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -382,16 +399,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -402,64 +419,69 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2">
-        <v>1</v>
+      <c r="C2" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C3">
-        <v>1</v>
+      <c r="C3" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="C4">
-        <v>1</v>
+      <c r="C4" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="C5">
-        <v>2</v>
+      <c r="C5" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576">
+      <formula1>"国家,中立区,副本"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -468,12 +490,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/table/国家表.xlsx
+++ b/doc/table/国家表.xlsx
@@ -403,7 +403,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -454,7 +454,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>

--- a/doc/table/国家表.xlsx
+++ b/doc/table/国家表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -38,14 +38,14 @@
     <t>中国</t>
   </si>
   <si>
-    <t>国家类型</t>
+    <t>国家</t>
+  </si>
+  <si>
+    <t>中立区</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>国家</t>
-  </si>
-  <si>
-    <t>中立区</t>
+    <t>地图类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -114,7 +114,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -156,7 +156,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -191,7 +191,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -403,7 +403,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -416,7 +416,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -427,7 +427,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -438,7 +438,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
@@ -449,7 +449,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
@@ -460,7 +460,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
